--- a/data/unchecked/manual_collect/china/jilin/jilinCaseStatistics_20200418.xlsx
+++ b/data/unchecked/manual_collect/china/jilin/jilinCaseStatistics_20200418.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\jilin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34102FF2-FA5A-4F2B-8646-51652DA035DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10368,16 +10374,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10446,151 +10448,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10609,194 +10468,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10804,249 +10477,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11080,11 +10514,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11093,72 +10527,29 @@
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="中国各省市区县数据"/>
@@ -11422,62 +10813,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.9090909090909" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.9090909090909" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.9090909090909" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.3636363636364" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="45.87890625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.87890625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.87890625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.3515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.0909090909091" style="12" customWidth="1"/>
-    <col min="9" max="12" width="12.4545454545455" style="12" customWidth="1"/>
-    <col min="13" max="13" width="18.3636363636364" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.3636363636364" style="12" customWidth="1"/>
-    <col min="15" max="15" width="22.1818181818182" style="12" customWidth="1"/>
-    <col min="16" max="19" width="12.4545454545455" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.0909090909091" style="12" customWidth="1"/>
-    <col min="21" max="21" width="20.7272727272727" style="12" customWidth="1"/>
-    <col min="22" max="22" width="19.5454545454545" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.6363636363636" style="12" customWidth="1"/>
-    <col min="25" max="25" width="13.4545454545455" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.9090909090909" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.05859375" style="12" customWidth="1"/>
+    <col min="9" max="12" width="12.46875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18.3515625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.3515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="22.17578125" style="12" customWidth="1"/>
+    <col min="16" max="19" width="12.46875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="18.05859375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="20.703125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="19.52734375" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.64453125" style="12" customWidth="1"/>
+    <col min="25" max="25" width="13.46875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.87890625" style="13" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" customWidth="1"/>
     <col min="28" max="28" width="60" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.0909090909091" style="12" customWidth="1"/>
+    <col min="29" max="29" width="31.87890625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.05859375" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="34" max="34" width="20.9090909090909" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.4545454545455" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="32" max="32" width="31.87890625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.87890625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.87890625" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.46875" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.87890625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90909090909091" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.87890625" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.87890625" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.87890625" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.46875" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.9090909090909" style="12"/>
+    <col min="46" max="46" width="5.05859375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="16.2" spans="1:46">
+    <row r="1" spans="1:46" s="10" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11617,7 +11008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" ht="15" customHeight="1" spans="1:35">
+    <row r="2" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -11637,7 +11028,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R2" s="11">
         <v>97</v>
@@ -11661,10 +11052,9 @@
         <v>51</v>
       </c>
       <c r="AC2" s="16"/>
-      <c r="AD2" s="11"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG2" s="11" t="s">
         <v>52</v>
@@ -11676,7 +11066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:35">
+    <row r="3" spans="1:46" s="11" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -11714,10 +11104,9 @@
         <v>57</v>
       </c>
       <c r="AC3" s="16"/>
-      <c r="AD3" s="11"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG3" s="11" t="s">
         <v>52</v>
@@ -11729,7 +11118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:35">
+    <row r="4" spans="1:46" s="11" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -11767,10 +11156,9 @@
         <v>59</v>
       </c>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="11"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>52</v>
@@ -11782,7 +11170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:35">
+    <row r="5" spans="1:46" s="11" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -11823,10 +11211,9 @@
         <v>61</v>
       </c>
       <c r="AC5" s="16"/>
-      <c r="AD5" s="11"/>
       <c r="AE5" s="18"/>
       <c r="AF5" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG5" s="11" t="s">
         <v>52</v>
@@ -11838,7 +11225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:35">
+    <row r="6" spans="1:46" s="11" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -11876,10 +11263,9 @@
         <v>63</v>
       </c>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="11"/>
       <c r="AE6" s="18"/>
       <c r="AF6" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG6" s="11" t="s">
         <v>52</v>
@@ -11891,7 +11277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:35">
+    <row r="7" spans="1:46" s="11" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -11929,10 +11315,9 @@
         <v>65</v>
       </c>
       <c r="AC7" s="16"/>
-      <c r="AD7" s="11"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG7" s="11" t="s">
         <v>52</v>
@@ -11944,7 +11329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:35">
+    <row r="8" spans="1:46" s="11" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -11976,10 +11361,9 @@
         <v>67</v>
       </c>
       <c r="AC8" s="16"/>
-      <c r="AD8" s="11"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>52</v>
@@ -11991,7 +11375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:35">
+    <row r="9" spans="1:46" s="11" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -12029,10 +11413,9 @@
         <v>69</v>
       </c>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="11"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG9" s="11" t="s">
         <v>52</v>
@@ -12044,7 +11427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:35">
+    <row r="10" spans="1:46" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -12082,10 +11465,9 @@
         <v>71</v>
       </c>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="11"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG10" s="11" t="s">
         <v>52</v>
@@ -12097,7 +11479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:35">
+    <row r="11" spans="1:46" s="11" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -12135,10 +11517,9 @@
         <v>73</v>
       </c>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="11"/>
       <c r="AE11" s="18"/>
       <c r="AF11" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG11" s="11" t="s">
         <v>52</v>
@@ -12150,7 +11531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:35">
+    <row r="12" spans="1:46" s="11" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -12191,10 +11572,9 @@
         <v>76</v>
       </c>
       <c r="AC12" s="16"/>
-      <c r="AD12" s="11"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG12" s="11" t="s">
         <v>52</v>
@@ -12206,7 +11586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:35">
+    <row r="13" spans="1:46" s="11" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -12247,10 +11627,9 @@
         <v>78</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="11"/>
       <c r="AE13" s="18"/>
       <c r="AF13" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG13" s="11" t="s">
         <v>52</v>
@@ -12262,7 +11641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:35">
+    <row r="14" spans="1:46" s="11" customFormat="1" ht="15.75">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -12283,9 +11662,6 @@
       </c>
       <c r="G14" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="I14" s="11">
-        <v>2</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>49</v>
@@ -12298,10 +11674,9 @@
         <v>80</v>
       </c>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="11"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG14" s="11" t="s">
         <v>52</v>
@@ -12313,7 +11688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="1" spans="1:35">
+    <row r="15" spans="1:46" s="11" customFormat="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -12334,6 +11709,9 @@
       </c>
       <c r="G15" s="11" t="s">
         <v>81</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2</v>
       </c>
       <c r="P15" s="11">
         <v>11</v>
@@ -12358,10 +11736,9 @@
         <v>82</v>
       </c>
       <c r="AC15" s="16"/>
-      <c r="AD15" s="11"/>
       <c r="AE15" s="18"/>
       <c r="AF15" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG15" s="11" t="s">
         <v>52</v>
@@ -12373,7 +11750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:35">
+    <row r="16" spans="1:46" s="11" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -12415,10 +11792,9 @@
         <v>84</v>
       </c>
       <c r="AC16" s="16"/>
-      <c r="AD16" s="11"/>
       <c r="AE16" s="18"/>
       <c r="AF16" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG16" s="11" t="s">
         <v>52</v>
@@ -12430,7 +11806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:35">
+    <row r="17" spans="1:35" s="11" customFormat="1" ht="15.75">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -12475,10 +11851,9 @@
         <v>86</v>
       </c>
       <c r="AC17" s="16"/>
-      <c r="AD17" s="11"/>
       <c r="AE17" s="18"/>
       <c r="AF17" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>52</v>
@@ -12490,7 +11865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:35">
+    <row r="18" spans="1:35" s="11" customFormat="1" ht="15.75">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -12535,10 +11910,9 @@
         <v>88</v>
       </c>
       <c r="AC18" s="16"/>
-      <c r="AD18" s="11"/>
       <c r="AE18" s="18"/>
       <c r="AF18" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>52</v>
@@ -12550,7 +11924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:35">
+    <row r="19" spans="1:35" s="11" customFormat="1" ht="15.75">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -12592,10 +11966,9 @@
         <v>90</v>
       </c>
       <c r="AC19" s="16"/>
-      <c r="AD19" s="11"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>52</v>
@@ -12607,7 +11980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:35">
+    <row r="20" spans="1:35" s="11" customFormat="1" ht="15.75">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -12652,10 +12025,9 @@
         <v>92</v>
       </c>
       <c r="AC20" s="16"/>
-      <c r="AD20" s="11"/>
       <c r="AE20" s="18"/>
       <c r="AF20" s="16">
-        <v>43940.4166666667</v>
+        <v>43940.416666666701</v>
       </c>
       <c r="AG20" s="11" t="s">
         <v>52</v>
@@ -12667,88 +12039,98 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="1:35">
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="1:35">
       <c r="D22" s="17"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F21:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E11 E14:E20">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="E9:E11 E14:E20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($D9)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16:S20 I16:Q20 I2:S15 I21:S1048576 T2:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16:S20 I16:Q20 I2:S15 I21:S1048576 T2:X1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F20">
-      <formula1>[1]中国各省市区县数据!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13 G15:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13 G15:G1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AB3:AB20" r:id="rId1" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121048.html"/>
-    <hyperlink ref="AB2" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB3" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121048.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB4" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121049.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB5" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121050.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB6" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121051.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB7" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121052.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB8" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121053.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB9" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121054.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB10" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121055.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB11" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121056.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB12" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121057.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB13" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121058.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB14" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121059.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB15" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121060.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB16" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121061.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB17" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121062.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB18" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121063.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB19" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121064.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
-    <hyperlink ref="AB20" r:id="rId2" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121065.html" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html"/>
+    <hyperlink ref="AB3:AB20" r:id="rId1" display="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121048.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB2" r:id="rId2" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AB3" r:id="rId3" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB4" r:id="rId4" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AB5" r:id="rId5" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB6" r:id="rId6" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AB7" r:id="rId7" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB8" r:id="rId8" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AB9" r:id="rId9" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB10" r:id="rId10" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AB11" r:id="rId11" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AB12" r:id="rId12" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AB13" r:id="rId13" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AB14" r:id="rId14" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AB15" r:id="rId15" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB16" r:id="rId16" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AB17" r:id="rId17" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB18" r:id="rId18" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB19" r:id="rId19" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AB20" r:id="rId20" tooltip="http://wsjkw.jl.gov.cn/xwzx/xwfb/202004/t20200419_7121047.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F21:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>[jilinCaseStatistics_20200211.xlsx]中国各省市区县数据!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -37060,7 +36442,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="7" t="s">
         <v>107</v>
       </c>
@@ -59906,7 +59288,7 @@
       <c r="AN2907" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/unchecked/manual_collect/china/jilin/jilinCaseStatistics_20200418.xlsx
+++ b/data/unchecked/manual_collect/china/jilin/jilinCaseStatistics_20200418.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\jilin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34102FF2-FA5A-4F2B-8646-51652DA035DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A06792-617E-415A-AF0B-AEA4BC7AFF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10376,8 +10376,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -10514,11 +10514,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -10821,8 +10821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
@@ -11026,6 +11026,9 @@
       </c>
       <c r="F2" s="11" t="s">
         <v>48</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
       </c>
       <c r="P2" s="11">
         <v>104</v>
